--- a/config_12.29/shoping_config_cjj.xlsx
+++ b/config_12.29/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8397,12 +8397,6 @@
     <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8413,6 +8407,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10824,10 +10824,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W402" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
+      <selection pane="bottomRight" activeCell="Z418" sqref="Z418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -27659,7 +27659,7 @@
       <c r="B273" s="85">
         <v>10189</v>
       </c>
-      <c r="D273" s="91">
+      <c r="D273" s="89">
         <v>111</v>
       </c>
       <c r="F273" s="85">
@@ -35489,7 +35489,7 @@
       <c r="Q389" s="19" t="s">
         <v>1167</v>
       </c>
-      <c r="R389" s="94" t="s">
+      <c r="R389" s="92" t="s">
         <v>1785</v>
       </c>
       <c r="W389" s="19" t="s">
@@ -35558,7 +35558,7 @@
       <c r="Q390" s="19" t="s">
         <v>1168</v>
       </c>
-      <c r="R390" s="94" t="s">
+      <c r="R390" s="92" t="s">
         <v>1786</v>
       </c>
       <c r="W390" s="19" t="s">
@@ -35627,7 +35627,7 @@
       <c r="Q391" s="19" t="s">
         <v>1169</v>
       </c>
-      <c r="R391" s="94" t="s">
+      <c r="R391" s="92" t="s">
         <v>1787</v>
       </c>
       <c r="W391" s="19" t="s">
@@ -37160,415 +37160,415 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A415" s="6">
+    <row r="415" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="41">
         <v>414</v>
       </c>
-      <c r="B415" s="5">
+      <c r="B415" s="41">
         <v>10331</v>
       </c>
-      <c r="F415" s="5">
-        <v>1</v>
-      </c>
-      <c r="G415" s="6" t="s">
+      <c r="F415" s="41">
+        <v>1</v>
+      </c>
+      <c r="G415" s="41" t="s">
         <v>1256</v>
       </c>
-      <c r="I415" s="6" t="s">
+      <c r="I415" s="41" t="s">
         <v>1257</v>
       </c>
-      <c r="J415" s="6" t="s">
+      <c r="J415" s="41" t="s">
         <v>1265</v>
       </c>
-      <c r="L415" s="6">
+      <c r="L415" s="41">
         <v>-31</v>
       </c>
-      <c r="M415" s="5">
-        <v>0</v>
-      </c>
-      <c r="N415" s="5">
-        <v>0</v>
-      </c>
-      <c r="O415" s="5" t="s">
+      <c r="M415" s="41">
+        <v>0</v>
+      </c>
+      <c r="N415" s="41">
+        <v>0</v>
+      </c>
+      <c r="O415" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="P415" s="6">
+      <c r="P415" s="41">
         <v>600</v>
       </c>
-      <c r="Q415" s="5" t="s">
+      <c r="Q415" s="41" t="s">
         <v>1266</v>
       </c>
-      <c r="R415" s="49" t="s">
+      <c r="R415" s="42" t="s">
         <v>1267</v>
       </c>
-      <c r="W415" s="6" t="s">
+      <c r="W415" s="41" t="s">
         <v>1268</v>
       </c>
-      <c r="X415" s="14" t="s">
+      <c r="X415" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="Y415" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z415" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA415" s="6">
+      <c r="Y415" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="Z415" s="41">
+        <v>1609775999</v>
+      </c>
+      <c r="AA415" s="41">
         <v>49</v>
       </c>
-      <c r="AH415" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI415" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL415" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM415" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A416" s="6">
+      <c r="AH415" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI415" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL415" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM415" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="41">
         <v>415</v>
       </c>
-      <c r="B416" s="5">
+      <c r="B416" s="41">
         <v>10332</v>
       </c>
-      <c r="F416" s="5">
-        <v>1</v>
-      </c>
-      <c r="G416" s="6" t="s">
+      <c r="F416" s="41">
+        <v>1</v>
+      </c>
+      <c r="G416" s="41" t="s">
         <v>1269</v>
       </c>
-      <c r="I416" s="6" t="s">
+      <c r="I416" s="41" t="s">
         <v>1270</v>
       </c>
-      <c r="J416" s="6" t="s">
+      <c r="J416" s="41" t="s">
         <v>1258</v>
       </c>
-      <c r="L416" s="6">
+      <c r="L416" s="41">
         <v>-31</v>
       </c>
-      <c r="M416" s="5">
-        <v>0</v>
-      </c>
-      <c r="N416" s="5">
-        <v>0</v>
-      </c>
-      <c r="O416" s="5" t="s">
+      <c r="M416" s="41">
+        <v>0</v>
+      </c>
+      <c r="N416" s="41">
+        <v>0</v>
+      </c>
+      <c r="O416" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="P416" s="6">
+      <c r="P416" s="41">
         <v>1800</v>
       </c>
-      <c r="Q416" s="5" t="s">
+      <c r="Q416" s="41" t="s">
         <v>1271</v>
       </c>
-      <c r="R416" s="49" t="s">
+      <c r="R416" s="42" t="s">
         <v>1259</v>
       </c>
-      <c r="W416" s="6" t="s">
+      <c r="W416" s="41" t="s">
         <v>1268</v>
       </c>
-      <c r="X416" s="14" t="s">
+      <c r="X416" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="Y416" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z416" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA416" s="6">
+      <c r="Y416" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="Z416" s="41">
+        <v>1609775999</v>
+      </c>
+      <c r="AA416" s="41">
         <v>49</v>
       </c>
-      <c r="AH416" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI416" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL416" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM416" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A417" s="5">
+      <c r="AH416" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI416" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL416" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM416" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="41">
         <v>416</v>
       </c>
-      <c r="B417" s="5">
+      <c r="B417" s="41">
         <v>10333</v>
       </c>
-      <c r="D417" s="90"/>
-      <c r="E417" s="89"/>
-      <c r="F417" s="5">
-        <v>1</v>
-      </c>
-      <c r="G417" s="6" t="s">
+      <c r="D417" s="94"/>
+      <c r="E417" s="94"/>
+      <c r="F417" s="41">
+        <v>1</v>
+      </c>
+      <c r="G417" s="41" t="s">
         <v>1272</v>
       </c>
-      <c r="I417" s="6" t="s">
+      <c r="I417" s="41" t="s">
         <v>1270</v>
       </c>
-      <c r="J417" s="6" t="s">
+      <c r="J417" s="41" t="s">
         <v>1265</v>
       </c>
-      <c r="L417" s="6">
+      <c r="L417" s="41">
         <v>-31</v>
       </c>
-      <c r="M417" s="5">
-        <v>0</v>
-      </c>
-      <c r="N417" s="5">
-        <v>0</v>
-      </c>
-      <c r="O417" s="5" t="s">
+      <c r="M417" s="41">
+        <v>0</v>
+      </c>
+      <c r="N417" s="41">
+        <v>0</v>
+      </c>
+      <c r="O417" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="P417" s="6">
+      <c r="P417" s="41">
         <v>4800</v>
       </c>
-      <c r="Q417" s="5" t="s">
+      <c r="Q417" s="41" t="s">
         <v>1064</v>
       </c>
-      <c r="R417" s="49" t="s">
+      <c r="R417" s="42" t="s">
         <v>1259</v>
       </c>
-      <c r="W417" s="6" t="s">
+      <c r="W417" s="41" t="s">
         <v>1071</v>
       </c>
-      <c r="X417" s="14" t="s">
+      <c r="X417" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="Y417" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z417" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA417" s="6">
+      <c r="Y417" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="Z417" s="41">
+        <v>1609775999</v>
+      </c>
+      <c r="AA417" s="41">
         <v>49</v>
       </c>
-      <c r="AH417" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI417" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL417" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM417" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A418" s="5">
+      <c r="AH417" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI417" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL417" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM417" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="41">
         <v>417</v>
       </c>
-      <c r="B418" s="5">
+      <c r="B418" s="41">
         <v>10334</v>
       </c>
-      <c r="D418" s="90"/>
-      <c r="E418" s="89"/>
-      <c r="F418" s="5">
-        <v>1</v>
-      </c>
-      <c r="G418" s="6" t="s">
+      <c r="D418" s="94"/>
+      <c r="E418" s="94"/>
+      <c r="F418" s="41">
+        <v>1</v>
+      </c>
+      <c r="G418" s="41" t="s">
         <v>1273</v>
       </c>
-      <c r="I418" s="6" t="s">
+      <c r="I418" s="41" t="s">
         <v>1261</v>
       </c>
-      <c r="J418" s="6" t="s">
+      <c r="J418" s="41" t="s">
         <v>1265</v>
       </c>
-      <c r="L418" s="6">
+      <c r="L418" s="41">
         <v>-31</v>
       </c>
-      <c r="M418" s="5">
-        <v>0</v>
-      </c>
-      <c r="N418" s="5">
-        <v>0</v>
-      </c>
-      <c r="O418" s="5" t="s">
+      <c r="M418" s="41">
+        <v>0</v>
+      </c>
+      <c r="N418" s="41">
+        <v>0</v>
+      </c>
+      <c r="O418" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="P418" s="6">
+      <c r="P418" s="41">
         <v>9800</v>
       </c>
-      <c r="Q418" s="5" t="s">
+      <c r="Q418" s="41" t="s">
         <v>1065</v>
       </c>
-      <c r="R418" s="49" t="s">
+      <c r="R418" s="42" t="s">
         <v>1267</v>
       </c>
-      <c r="W418" s="6" t="s">
+      <c r="W418" s="41" t="s">
         <v>1071</v>
       </c>
-      <c r="X418" s="14" t="s">
+      <c r="X418" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="Y418" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z418" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA418" s="6">
+      <c r="Y418" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="Z418" s="41">
+        <v>1609775999</v>
+      </c>
+      <c r="AA418" s="41">
         <v>50</v>
       </c>
-      <c r="AH418" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI418" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL418" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM418" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A419" s="6">
+      <c r="AH418" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI418" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL418" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM418" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="41">
         <v>418</v>
       </c>
-      <c r="B419" s="5">
+      <c r="B419" s="41">
         <v>10335</v>
       </c>
-      <c r="F419" s="5">
-        <v>1</v>
-      </c>
-      <c r="G419" s="6" t="s">
+      <c r="F419" s="41">
+        <v>1</v>
+      </c>
+      <c r="G419" s="41" t="s">
         <v>1269</v>
       </c>
-      <c r="I419" s="6" t="s">
+      <c r="I419" s="41" t="s">
         <v>1274</v>
       </c>
-      <c r="J419" s="6" t="s">
+      <c r="J419" s="41" t="s">
         <v>1258</v>
       </c>
-      <c r="L419" s="6">
+      <c r="L419" s="41">
         <v>-31</v>
       </c>
-      <c r="M419" s="5">
-        <v>0</v>
-      </c>
-      <c r="N419" s="5">
-        <v>0</v>
-      </c>
-      <c r="O419" s="5" t="s">
+      <c r="M419" s="41">
+        <v>0</v>
+      </c>
+      <c r="N419" s="41">
+        <v>0</v>
+      </c>
+      <c r="O419" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="P419" s="6">
+      <c r="P419" s="41">
         <v>19800</v>
       </c>
-      <c r="Q419" s="5" t="s">
+      <c r="Q419" s="41" t="s">
         <v>1066</v>
       </c>
-      <c r="R419" s="49" t="s">
+      <c r="R419" s="42" t="s">
         <v>1267</v>
       </c>
-      <c r="W419" s="6" t="s">
+      <c r="W419" s="41" t="s">
         <v>1071</v>
       </c>
-      <c r="X419" s="14" t="s">
+      <c r="X419" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="Y419" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z419" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA419" s="6">
+      <c r="Y419" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="Z419" s="41">
+        <v>1609775999</v>
+      </c>
+      <c r="AA419" s="41">
         <v>50</v>
       </c>
-      <c r="AH419" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI419" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL419" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM419" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A420" s="6">
+      <c r="AH419" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI419" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL419" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM419" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="41">
         <v>419</v>
       </c>
-      <c r="B420" s="5">
+      <c r="B420" s="41">
         <v>10336</v>
       </c>
-      <c r="F420" s="5">
-        <v>1</v>
-      </c>
-      <c r="G420" s="6" t="s">
+      <c r="F420" s="41">
+        <v>1</v>
+      </c>
+      <c r="G420" s="41" t="s">
         <v>1260</v>
       </c>
-      <c r="I420" s="6" t="s">
+      <c r="I420" s="41" t="s">
         <v>1261</v>
       </c>
-      <c r="J420" s="6" t="s">
+      <c r="J420" s="41" t="s">
         <v>1265</v>
       </c>
-      <c r="L420" s="6">
+      <c r="L420" s="41">
         <v>-31</v>
       </c>
-      <c r="M420" s="5">
-        <v>0</v>
-      </c>
-      <c r="N420" s="5">
-        <v>0</v>
-      </c>
-      <c r="O420" s="5" t="s">
+      <c r="M420" s="41">
+        <v>0</v>
+      </c>
+      <c r="N420" s="41">
+        <v>0</v>
+      </c>
+      <c r="O420" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="P420" s="6">
+      <c r="P420" s="41">
         <v>49800</v>
       </c>
-      <c r="Q420" s="5" t="s">
+      <c r="Q420" s="41" t="s">
         <v>1067</v>
       </c>
-      <c r="R420" s="49" t="s">
+      <c r="R420" s="42" t="s">
         <v>1267</v>
       </c>
-      <c r="W420" s="6" t="s">
+      <c r="W420" s="41" t="s">
         <v>1071</v>
       </c>
-      <c r="X420" s="14" t="s">
+      <c r="X420" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="Y420" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z420" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA420" s="6">
+      <c r="Y420" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="Z420" s="41">
+        <v>1609775999</v>
+      </c>
+      <c r="AA420" s="41">
         <v>50</v>
       </c>
-      <c r="AH420" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI420" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL420" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM420" s="5">
+      <c r="AH420" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI420" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL420" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM420" s="41">
         <v>1</v>
       </c>
     </row>
@@ -41036,7 +41036,7 @@
       <c r="G474" s="74" t="s">
         <v>1440</v>
       </c>
-      <c r="H474" s="93"/>
+      <c r="H474" s="91"/>
       <c r="I474" s="74" t="s">
         <v>1425</v>
       </c>
@@ -41102,7 +41102,7 @@
       <c r="G475" s="74" t="s">
         <v>1443</v>
       </c>
-      <c r="H475" s="93"/>
+      <c r="H475" s="91"/>
       <c r="I475" s="74" t="s">
         <v>1425</v>
       </c>
@@ -41458,10 +41458,10 @@
       <c r="X480" s="66">
         <v>9999999</v>
       </c>
-      <c r="Y480" s="92">
+      <c r="Y480" s="90">
         <v>1607385600</v>
       </c>
-      <c r="Z480" s="92">
+      <c r="Z480" s="90">
         <v>1607961599</v>
       </c>
       <c r="AH480" s="66">
@@ -41520,10 +41520,10 @@
       <c r="X481" s="66">
         <v>9999999</v>
       </c>
-      <c r="Y481" s="92">
+      <c r="Y481" s="90">
         <v>1607385600</v>
       </c>
-      <c r="Z481" s="92">
+      <c r="Z481" s="90">
         <v>1607961599</v>
       </c>
       <c r="AH481" s="66">
@@ -41582,10 +41582,10 @@
       <c r="X482" s="66">
         <v>9999999</v>
       </c>
-      <c r="Y482" s="92">
+      <c r="Y482" s="90">
         <v>1607385600</v>
       </c>
-      <c r="Z482" s="92">
+      <c r="Z482" s="90">
         <v>1607961599</v>
       </c>
       <c r="AH482" s="66">
@@ -41644,10 +41644,10 @@
       <c r="X483" s="66">
         <v>9999999</v>
       </c>
-      <c r="Y483" s="92">
+      <c r="Y483" s="90">
         <v>1607385600</v>
       </c>
-      <c r="Z483" s="92">
+      <c r="Z483" s="90">
         <v>1607961599</v>
       </c>
       <c r="AH483" s="66">
@@ -41706,10 +41706,10 @@
       <c r="X484" s="66">
         <v>9999999</v>
       </c>
-      <c r="Y484" s="92">
+      <c r="Y484" s="90">
         <v>1607385600</v>
       </c>
-      <c r="Z484" s="92">
+      <c r="Z484" s="90">
         <v>1607961599</v>
       </c>
       <c r="AH484" s="66">
@@ -41768,10 +41768,10 @@
       <c r="X485" s="66">
         <v>9999999</v>
       </c>
-      <c r="Y485" s="92">
+      <c r="Y485" s="90">
         <v>1607385600</v>
       </c>
-      <c r="Z485" s="92">
+      <c r="Z485" s="90">
         <v>1607961599</v>
       </c>
       <c r="AH485" s="66">

--- a/config_12.29/shoping_config_cjj.xlsx
+++ b/config_12.29/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="1837">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7894,6 +7894,34 @@
   </si>
   <si>
     <t>首充加赠2640万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1880万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18800000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>998元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8129,7 +8157,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8413,6 +8441,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10821,13 +10852,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN492"/>
+  <dimension ref="A1:AN494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W402" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z418" sqref="Z418"/>
+      <selection pane="bottomRight" activeCell="C504" sqref="C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42239,6 +42270,168 @@
         <v>1</v>
       </c>
       <c r="AM492" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A493" s="19">
+        <v>492</v>
+      </c>
+      <c r="B493" s="53">
+        <v>10409</v>
+      </c>
+      <c r="C493" s="53"/>
+      <c r="D493" s="53"/>
+      <c r="E493" s="53"/>
+      <c r="F493" s="53">
+        <v>1</v>
+      </c>
+      <c r="G493" s="53" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H493" s="53"/>
+      <c r="I493" s="53" t="s">
+        <v>1831</v>
+      </c>
+      <c r="J493" s="53" t="s">
+        <v>1832</v>
+      </c>
+      <c r="K493" s="53"/>
+      <c r="L493" s="53">
+        <v>-31</v>
+      </c>
+      <c r="M493" s="53">
+        <v>0</v>
+      </c>
+      <c r="N493" s="53">
+        <v>0</v>
+      </c>
+      <c r="O493" s="53" t="s">
+        <v>1833</v>
+      </c>
+      <c r="P493" s="53">
+        <v>49800</v>
+      </c>
+      <c r="Q493" s="53" t="s">
+        <v>1834</v>
+      </c>
+      <c r="R493" s="95" t="s">
+        <v>1835</v>
+      </c>
+      <c r="S493" s="53"/>
+      <c r="T493" s="53"/>
+      <c r="U493" s="53"/>
+      <c r="V493" s="53"/>
+      <c r="W493" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="X493" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="Y493" s="53">
+        <v>1609200000</v>
+      </c>
+      <c r="Z493" s="53">
+        <v>1609775999</v>
+      </c>
+      <c r="AA493" s="53"/>
+      <c r="AB493" s="53"/>
+      <c r="AC493" s="53"/>
+      <c r="AD493" s="53"/>
+      <c r="AE493" s="53"/>
+      <c r="AF493" s="53"/>
+      <c r="AG493" s="53"/>
+      <c r="AH493" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A494" s="19">
+        <v>493</v>
+      </c>
+      <c r="B494" s="53">
+        <v>10410</v>
+      </c>
+      <c r="C494" s="53"/>
+      <c r="D494" s="53"/>
+      <c r="E494" s="53"/>
+      <c r="F494" s="53">
+        <v>1</v>
+      </c>
+      <c r="G494" s="53" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H494" s="53"/>
+      <c r="I494" s="53" t="s">
+        <v>1836</v>
+      </c>
+      <c r="J494" s="53" t="s">
+        <v>1832</v>
+      </c>
+      <c r="K494" s="53"/>
+      <c r="L494" s="53">
+        <v>-31</v>
+      </c>
+      <c r="M494" s="53">
+        <v>0</v>
+      </c>
+      <c r="N494" s="53">
+        <v>0</v>
+      </c>
+      <c r="O494" s="53" t="s">
+        <v>1833</v>
+      </c>
+      <c r="P494" s="53">
+        <v>99800</v>
+      </c>
+      <c r="Q494" s="53" t="s">
+        <v>1834</v>
+      </c>
+      <c r="R494" s="95" t="s">
+        <v>1835</v>
+      </c>
+      <c r="S494" s="53"/>
+      <c r="T494" s="53"/>
+      <c r="U494" s="53"/>
+      <c r="V494" s="53"/>
+      <c r="W494" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="X494" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="Y494" s="53">
+        <v>1609200000</v>
+      </c>
+      <c r="Z494" s="53">
+        <v>1609775999</v>
+      </c>
+      <c r="AA494" s="53"/>
+      <c r="AB494" s="53"/>
+      <c r="AC494" s="53"/>
+      <c r="AD494" s="53"/>
+      <c r="AE494" s="53"/>
+      <c r="AF494" s="53"/>
+      <c r="AG494" s="53"/>
+      <c r="AH494" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="6">
         <v>1</v>
       </c>
     </row>

--- a/config_12.29/shoping_config_cjj.xlsx
+++ b/config_12.29/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="1837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="1838">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7917,11 +7917,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>18800000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>998元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18800000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10855,10 +10859,10 @@
   <dimension ref="A1:AN494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W486" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C504" sqref="C504"/>
+      <selection pane="bottomRight" activeCell="S502" sqref="S502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42316,7 +42320,7 @@
         <v>1834</v>
       </c>
       <c r="R493" s="95" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="S493" s="53"/>
       <c r="T493" s="53"/>
@@ -42372,7 +42376,7 @@
       </c>
       <c r="H494" s="53"/>
       <c r="I494" s="53" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="J494" s="53" t="s">
         <v>1832</v>
@@ -42397,7 +42401,7 @@
         <v>1834</v>
       </c>
       <c r="R494" s="95" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="S494" s="53"/>
       <c r="T494" s="53"/>

--- a/config_12.29/shoping_config_cjj.xlsx
+++ b/config_12.29/shoping_config_cjj.xlsx
@@ -10847,10 +10847,10 @@
   <dimension ref="A1:AN494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q486" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q499" sqref="Q499"/>
+      <selection pane="bottomRight" activeCell="X493" sqref="X493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42318,7 +42318,7 @@
         <v>540</v>
       </c>
       <c r="X493" s="53">
-        <v>9999999</v>
+        <v>200</v>
       </c>
       <c r="Y493" s="53">
         <v>1609200000</v>

--- a/config_12.29/shoping_config_cjj.xlsx
+++ b/config_12.29/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="1836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="1846">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7915,6 +7915,46 @@
   </si>
   <si>
     <t>"金币宝箱抽奖券",</t>
+  </si>
+  <si>
+    <t>VIP11礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8888万金币","水滴*30","玩具锤*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>88880000,30,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP12礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9888万金币","水滴*40","玩具锤*40",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98880000,40,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10844,13 +10884,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN494"/>
+  <dimension ref="A1:AN496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="V486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X493" sqref="X493"/>
+      <selection pane="bottomRight" activeCell="A495" sqref="A495:XFD496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42424,6 +42464,172 @@
         <v>1</v>
       </c>
       <c r="AM494" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A495" s="44">
+        <v>494</v>
+      </c>
+      <c r="B495" s="44">
+        <v>10411</v>
+      </c>
+      <c r="C495" s="44"/>
+      <c r="D495" s="44"/>
+      <c r="E495" s="44"/>
+      <c r="F495" s="44">
+        <v>1</v>
+      </c>
+      <c r="G495" s="44" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H495" s="44"/>
+      <c r="I495" s="44"/>
+      <c r="J495" s="44" t="s">
+        <v>1837</v>
+      </c>
+      <c r="K495" s="44"/>
+      <c r="L495" s="44">
+        <v>-31</v>
+      </c>
+      <c r="M495" s="44">
+        <v>0</v>
+      </c>
+      <c r="N495" s="44">
+        <v>0</v>
+      </c>
+      <c r="O495" s="44" t="s">
+        <v>1838</v>
+      </c>
+      <c r="P495" s="44">
+        <v>79800</v>
+      </c>
+      <c r="Q495" s="44" t="s">
+        <v>1839</v>
+      </c>
+      <c r="R495" s="48" t="s">
+        <v>1840</v>
+      </c>
+      <c r="S495" s="44"/>
+      <c r="T495" s="44"/>
+      <c r="U495" s="44"/>
+      <c r="V495" s="44"/>
+      <c r="W495" s="44" t="s">
+        <v>1841</v>
+      </c>
+      <c r="X495" s="44">
+        <v>99999999</v>
+      </c>
+      <c r="Y495" s="44">
+        <v>1592263800</v>
+      </c>
+      <c r="Z495" s="44">
+        <v>2552233600</v>
+      </c>
+      <c r="AA495" s="44">
+        <v>14</v>
+      </c>
+      <c r="AB495" s="44"/>
+      <c r="AC495" s="44"/>
+      <c r="AD495" s="44"/>
+      <c r="AE495" s="44"/>
+      <c r="AF495" s="44"/>
+      <c r="AG495" s="44"/>
+      <c r="AH495" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="44">
+        <v>1</v>
+      </c>
+      <c r="AJ495" s="44"/>
+      <c r="AK495" s="44"/>
+      <c r="AL495" s="44">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A496" s="44">
+        <v>495</v>
+      </c>
+      <c r="B496" s="44">
+        <v>10412</v>
+      </c>
+      <c r="C496" s="44"/>
+      <c r="D496" s="44"/>
+      <c r="E496" s="44"/>
+      <c r="F496" s="44">
+        <v>1</v>
+      </c>
+      <c r="G496" s="44" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H496" s="44"/>
+      <c r="I496" s="44"/>
+      <c r="J496" s="44" t="s">
+        <v>1843</v>
+      </c>
+      <c r="K496" s="44"/>
+      <c r="L496" s="44">
+        <v>-31</v>
+      </c>
+      <c r="M496" s="44">
+        <v>0</v>
+      </c>
+      <c r="N496" s="44">
+        <v>0</v>
+      </c>
+      <c r="O496" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="P496" s="44">
+        <v>89800</v>
+      </c>
+      <c r="Q496" s="44" t="s">
+        <v>1844</v>
+      </c>
+      <c r="R496" s="48" t="s">
+        <v>1845</v>
+      </c>
+      <c r="S496" s="44"/>
+      <c r="T496" s="44"/>
+      <c r="U496" s="44"/>
+      <c r="V496" s="44"/>
+      <c r="W496" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="X496" s="44">
+        <v>99999999</v>
+      </c>
+      <c r="Y496" s="44">
+        <v>1592263800</v>
+      </c>
+      <c r="Z496" s="44">
+        <v>2552233600</v>
+      </c>
+      <c r="AA496" s="44">
+        <v>14</v>
+      </c>
+      <c r="AB496" s="44"/>
+      <c r="AC496" s="44"/>
+      <c r="AD496" s="44"/>
+      <c r="AE496" s="44"/>
+      <c r="AF496" s="44"/>
+      <c r="AG496" s="44"/>
+      <c r="AH496" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="44">
+        <v>1</v>
+      </c>
+      <c r="AJ496" s="44"/>
+      <c r="AK496" s="44"/>
+      <c r="AL496" s="44">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="44">
         <v>1</v>
       </c>
     </row>

--- a/config_12.29/shoping_config_cjj.xlsx
+++ b/config_12.29/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8942,7 +8942,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F24"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9090,7 +9090,9 @@
       <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="2">
         <v>10330</v>
       </c>
@@ -9171,7 +9173,9 @@
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -9252,7 +9256,9 @@
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -9333,7 +9339,9 @@
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9414,7 +9422,9 @@
       <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9495,7 +9505,9 @@
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9576,7 +9588,9 @@
       <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9657,7 +9671,9 @@
       <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9739,6 +9755,9 @@
         <v>42</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9822,6 +9841,9 @@
       <c r="E11" s="23" t="s">
         <v>68</v>
       </c>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -10807,6 +10829,9 @@
         <v>42</v>
       </c>
       <c r="E24" s="23"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10887,10 +10912,10 @@
   <dimension ref="A1:AN496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V486" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V485" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A495" sqref="A495:XFD496"/>
+      <selection pane="bottomRight" activeCell="F414" sqref="F414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14744,7 +14769,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="81" t="s">
         <v>234</v>
@@ -14803,7 +14828,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="81" t="s">
         <v>236</v>
@@ -14862,7 +14887,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="81" t="s">
         <v>238</v>
@@ -14921,7 +14946,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="81" t="s">
         <v>240</v>
@@ -14980,7 +15005,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="81" t="s">
         <v>241</v>
@@ -16330,7 +16355,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="85" t="s">
         <v>265</v>
@@ -18364,7 +18389,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="85" t="s">
         <v>331</v>
@@ -18423,7 +18448,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="85" t="s">
         <v>530</v>
@@ -27726,7 +27751,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="85" t="s">
         <v>533</v>
@@ -37175,7 +37200,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" s="81" t="s">
         <v>1242</v>
